--- a/Data/sampling_2021_cleaned.xlsx
+++ b/Data/sampling_2021_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2347F4D3-0433-E441-AF61-8BD1DDBC203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FDCB1-9F0D-5F44-93B5-CEF76A12AEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="1260" windowWidth="18420" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="156">
   <si>
     <t>sample_ID</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>7 -04 - 105</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -628,6 +631,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,13 +947,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G238" sqref="G238"/>
+      <selection pane="bottomRight" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -966,7 +970,7 @@
     <col min="11" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1018,7 +1022,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1041,7 +1045,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1066,7 +1070,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1091,7 +1095,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1116,7 +1120,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1141,7 +1145,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1187,7 +1191,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1212,7 +1216,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1237,7 +1241,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1260,7 +1264,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1285,7 +1289,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1333,7 +1337,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1379,7 +1383,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1402,7 +1406,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1427,7 +1431,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1475,7 +1479,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1500,7 +1504,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1523,7 +1527,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1548,7 +1552,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1596,7 +1600,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1621,7 +1625,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1671,7 +1675,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1696,7 +1700,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1721,7 +1725,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1767,7 +1771,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1790,7 +1794,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1815,7 +1819,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1838,7 +1842,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1861,7 +1865,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1884,7 +1888,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1911,7 +1915,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1934,7 +1938,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1957,7 +1961,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1984,7 +1988,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2007,7 +2011,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2030,7 +2034,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2053,7 +2057,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2122,7 +2126,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2170,7 +2174,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2195,7 +2199,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2218,7 +2222,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2568,7 +2572,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2593,7 +2597,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2618,7 +2622,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2643,7 +2647,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2691,7 +2695,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2737,7 +2741,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2760,7 +2764,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2783,7 +2787,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2829,7 +2833,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2854,7 +2858,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3144,7 +3148,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3169,7 +3173,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3242,7 +3246,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3269,7 +3273,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3294,7 +3298,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3342,7 +3346,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3365,7 +3369,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3411,7 +3415,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3532,7 +3536,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -3555,7 +3559,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -3601,7 +3605,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3649,7 +3653,7 @@
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3672,7 +3676,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -3718,7 +3722,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -3741,7 +3745,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -3764,7 +3768,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -3787,7 +3791,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -3814,7 +3818,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -3837,7 +3841,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -3860,7 +3864,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -3883,7 +3887,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -3906,7 +3910,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -3929,24 +3933,24 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>124</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1326</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1326</v>
       </c>
       <c r="D124" s="5">
-        <v>44354.387916666667</v>
+        <v>44354.383009259262</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>19</v>
@@ -3956,24 +3960,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
-        <v>1326</v>
-      </c>
-      <c r="C125" s="4">
-        <v>1326</v>
+      <c r="B125" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D125" s="5">
-        <v>44354.383009259262</v>
+        <v>44354.387916666667</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>19</v>
@@ -3983,7 +3987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -4782,7 +4786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -5386,7 +5390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -5631,7 +5635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -5979,7 +5983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -6427,7 +6431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -6697,7 +6701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -6724,7 +6728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>142</v>
       </c>
@@ -6803,7 +6807,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>145</v>
       </c>
@@ -6830,7 +6834,7 @@
       </c>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>149</v>
       </c>
@@ -6857,7 +6861,7 @@
       </c>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>150</v>
       </c>
@@ -6882,7 +6886,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>151</v>
       </c>
@@ -6909,7 +6913,75 @@
       </c>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>400</v>
+      </c>
+      <c r="B232" s="3">
+        <v>320</v>
+      </c>
+      <c r="C232" s="3">
+        <v>320</v>
+      </c>
+      <c r="D232" s="14">
+        <v>44301</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>401</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1345</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1345</v>
+      </c>
+      <c r="D233" s="14">
+        <v>44301</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>402</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1310</v>
+      </c>
+      <c r="D234" s="14">
+        <v>44306</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B332" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I232">
